--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3693.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3693.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.682648045323467</v>
+        <v>1.859648466110229</v>
       </c>
       <c r="B1">
-        <v>5.179981414501865</v>
+        <v>4.159233570098877</v>
       </c>
       <c r="C1">
-        <v>5.179050232046482</v>
+        <v>3.501550436019897</v>
       </c>
       <c r="D1">
-        <v>1.378435237219303</v>
+        <v>2.237272977828979</v>
       </c>
       <c r="E1">
-        <v>0.8976787510055171</v>
+        <v>1.96209728717804</v>
       </c>
     </row>
   </sheetData>
